--- a/docs/Rubric.xlsx
+++ b/docs/Rubric.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Google Drive/BIT/Term 5/Full Stack/full_stack_assignments/data_project/heroes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Google Drive/BIT/Term 5/Full Stack/full_stack_assignments/heroes_on_rails/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BABD8BC-33D6-CA4C-AE1A-2AF6331270DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF16FE-383B-D945-A84E-8C3769C68B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23120" yWindow="9660" windowWidth="23100" windowHeight="27100" xr2:uid="{F4375F12-EB9B-7F4C-8463-9076C8197112}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19300" xr2:uid="{F4375F12-EB9B-7F4C-8463-9076C8197112}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Data" sheetId="1" r:id="rId1"/>
     <sheet name="Rubric Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,9 @@
         <v>1.2</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -675,7 +677,9 @@
         <v>1.2</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -752,7 +756,9 @@
       <c r="F6" s="3">
         <v>1.2</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -777,7 +783,9 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -804,7 +812,9 @@
       <c r="F8" s="3">
         <v>1.2</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -831,7 +841,9 @@
       <c r="F9" s="3">
         <v>1.2</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
@@ -904,7 +916,9 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -929,7 +943,9 @@
         <v>1.2</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
@@ -956,7 +972,9 @@
       <c r="F14" s="3">
         <v>1.2</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -983,7 +1001,9 @@
       <c r="F15" s="3">
         <v>1.2</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
@@ -1266,7 +1286,9 @@
         <v>1</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -1293,7 +1315,9 @@
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <v>1.2</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
@@ -1327,7 +1351,7 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70.8</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1349,7 +1373,7 @@
       </c>
       <c r="G30" s="3" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">SUM(COUNTIF(INDIRECT({"G26","G23","G21","G15","G7","G2"}), ""))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1371,7 +1395,7 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>-18</v>
+        <v>64.8</v>
       </c>
       <c r="H31" s="3"/>
     </row>

--- a/docs/Rubric.xlsx
+++ b/docs/Rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Google Drive/BIT/Term 5/Full Stack/full_stack_assignments/heroes_on_rails/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF16FE-383B-D945-A84E-8C3769C68B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDC529-C94C-CE44-AF20-CFE69782C01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19300" xr2:uid="{F4375F12-EB9B-7F4C-8463-9076C8197112}"/>
+    <workbookView xWindow="3680" yWindow="6060" windowWidth="33600" windowHeight="30260" xr2:uid="{F4375F12-EB9B-7F4C-8463-9076C8197112}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Data" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B98E123-5709-8140-994E-EE7A6A7ED043}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1030,9 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -1057,7 +1059,9 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
@@ -1082,7 +1086,9 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -1157,7 +1163,9 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
@@ -1209,7 +1217,9 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
@@ -1236,7 +1246,9 @@
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -1261,7 +1273,9 @@
       <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
@@ -1351,7 +1365,7 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>70.8</v>
+        <v>102.79999999999998</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1373,7 +1387,7 @@
       </c>
       <c r="G30" s="3" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">SUM(COUNTIF(INDIRECT({"G26","G23","G21","G15","G7","G2"}), ""))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1395,7 +1409,7 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>64.8</v>
+        <v>102.79999999999998</v>
       </c>
       <c r="H31" s="3"/>
     </row>
